--- a/dependencies/bi/salmonella/typhimurium-LT2/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/bi/salmonella/typhimurium-LT2/script_dependents/Filtered_Regions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/gen-bact/salmonella/typhimurium/script_dependents/script2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/typhimurium-LT2/script_dependents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2A9332BB-FD01-DC42-B25A-8B1BE55DCE70}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A968A2-9139-0344-A4F7-87400CBC0895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15680" yWindow="460" windowWidth="35520" windowHeight="23800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="2160" windowWidth="25780" windowHeight="24640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AE006468.2" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
   <si>
     <t>typhimurium-All</t>
   </si>
@@ -200,13 +200,283 @@
   </si>
   <si>
     <t>832323</t>
+  </si>
+  <si>
+    <t>960294-1002017</t>
+  </si>
+  <si>
+    <t>1001531-1036138</t>
+  </si>
+  <si>
+    <t>1098179-1144020</t>
+  </si>
+  <si>
+    <t>1957835-1971770</t>
+  </si>
+  <si>
+    <t>2728976-2776890</t>
+  </si>
+  <si>
+    <t>2836642-2885742</t>
+  </si>
+  <si>
+    <t>2899840-2931190</t>
+  </si>
+  <si>
+    <t>4417918-4438335</t>
+  </si>
+  <si>
+    <t>815297-815399</t>
+  </si>
+  <si>
+    <t>819460-819828</t>
+  </si>
+  <si>
+    <t>1039690-1039791</t>
+  </si>
+  <si>
+    <t>1039774-1039869</t>
+  </si>
+  <si>
+    <t>1224175-1224670</t>
+  </si>
+  <si>
+    <t>2630737-2631129</t>
+  </si>
+  <si>
+    <t>2730868-2730950</t>
+  </si>
+  <si>
+    <t>3077943-3078094</t>
+  </si>
+  <si>
+    <t>3184549-3184629</t>
+  </si>
+  <si>
+    <t>3629491-3629571</t>
+  </si>
+  <si>
+    <t>3682922-3683327</t>
+  </si>
+  <si>
+    <t>1025020-1025737</t>
+  </si>
+  <si>
+    <t>1025020-1025738</t>
+  </si>
+  <si>
+    <t>1224130-1224197</t>
+  </si>
+  <si>
+    <t>1224682-1224749</t>
+  </si>
+  <si>
+    <t>2035583-2035659</t>
+  </si>
+  <si>
+    <t>2045623-2046339</t>
+  </si>
+  <si>
+    <t>2528936-2529013</t>
+  </si>
+  <si>
+    <t>2529054-2529131</t>
+  </si>
+  <si>
+    <t>2531836-2531911</t>
+  </si>
+  <si>
+    <t>2531957-2532034</t>
+  </si>
+  <si>
+    <t>2532074-2532149</t>
+  </si>
+  <si>
+    <t>2532154-2532231</t>
+  </si>
+  <si>
+    <t>2579219-2579937</t>
+  </si>
+  <si>
+    <t>2579220-2579937</t>
+  </si>
+  <si>
+    <t>2579220-2579938</t>
+  </si>
+  <si>
+    <t>2796440-2796573</t>
+  </si>
+  <si>
+    <t>294514-294645</t>
+  </si>
+  <si>
+    <t>294514-294646</t>
+  </si>
+  <si>
+    <t>294764-294906</t>
+  </si>
+  <si>
+    <t>294829-294905</t>
+  </si>
+  <si>
+    <t>2969930-2970008</t>
+  </si>
+  <si>
+    <t>2970200-2970278</t>
+  </si>
+  <si>
+    <t>2970478-2970556</t>
+  </si>
+  <si>
+    <t>304268-304344</t>
+  </si>
+  <si>
+    <t>3141065-3141147</t>
+  </si>
+  <si>
+    <t>3141070-3141146</t>
+  </si>
+  <si>
+    <t>3141171-3141253</t>
+  </si>
+  <si>
+    <t>3141176-3141252</t>
+  </si>
+  <si>
+    <t>3194213-3194931</t>
+  </si>
+  <si>
+    <t>3194214-3194931</t>
+  </si>
+  <si>
+    <t>3194214-3194932</t>
+  </si>
+  <si>
+    <t>3316846-3317058</t>
+  </si>
+  <si>
+    <t>3458510-3458586</t>
+  </si>
+  <si>
+    <t>3566871-3567002</t>
+  </si>
+  <si>
+    <t>3566872-3567002</t>
+  </si>
+  <si>
+    <t>3566872-3567005</t>
+  </si>
+  <si>
+    <t>3635059-3635775</t>
+  </si>
+  <si>
+    <t>3682922-3683126</t>
+  </si>
+  <si>
+    <t>3683122-3683326</t>
+  </si>
+  <si>
+    <t>4105115-4105248</t>
+  </si>
+  <si>
+    <t>4105118-4105248</t>
+  </si>
+  <si>
+    <t>4105118-4105250</t>
+  </si>
+  <si>
+    <t>4105231-4105373</t>
+  </si>
+  <si>
+    <t>4105296-4105372</t>
+  </si>
+  <si>
+    <t>4141148-4141234</t>
+  </si>
+  <si>
+    <t>4201309-4201439</t>
+  </si>
+  <si>
+    <t>4356380-4356510</t>
+  </si>
+  <si>
+    <t>4559283-4560000</t>
+  </si>
+  <si>
+    <t>4559283-4560001</t>
+  </si>
+  <si>
+    <t>4596435-4596511</t>
+  </si>
+  <si>
+    <t>4596435-4596512</t>
+  </si>
+  <si>
+    <t>4596667-4596743</t>
+  </si>
+  <si>
+    <t>4596899-4596975</t>
+  </si>
+  <si>
+    <t>4596899-4596976</t>
+  </si>
+  <si>
+    <t>4810646-4810734</t>
+  </si>
+  <si>
+    <t>4810647-4810733</t>
+  </si>
+  <si>
+    <t>4810878-4810966</t>
+  </si>
+  <si>
+    <t>4810879-4810965</t>
+  </si>
+  <si>
+    <t>738249-738327</t>
+  </si>
+  <si>
+    <t>738341-738416</t>
+  </si>
+  <si>
+    <t>738451-738526</t>
+  </si>
+  <si>
+    <t>738642-738720</t>
+  </si>
+  <si>
+    <t>818781-818858</t>
+  </si>
+  <si>
+    <t>818988-819063</t>
+  </si>
+  <si>
+    <t>818988-819065</t>
+  </si>
+  <si>
+    <t>819067-819144</t>
+  </si>
+  <si>
+    <t>819192-819269</t>
+  </si>
+  <si>
+    <t>819402-819479</t>
+  </si>
+  <si>
+    <t>906556-906624</t>
+  </si>
+  <si>
+    <t>906727-906939</t>
+  </si>
+  <si>
+    <t>908736-908804</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -449,6 +719,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1656,7 +1938,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1667,6 +1949,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="891">
     <cellStyle name="20% - Accent1" xfId="148" builtinId="30" customBuiltin="1"/>
@@ -2897,16 +3181,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A60"/>
+  <dimension ref="A1:A151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A60"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
     <col min="2" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
@@ -3210,6 +3494,461 @@
         <v>59</v>
       </c>
     </row>
+    <row r="61" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/dependencies/bi/salmonella/typhimurium-LT2/script_dependents/Filtered_Regions.xlsx
+++ b/dependencies/bi/salmonella/typhimurium-LT2/script_dependents/Filtered_Regions.xlsx
@@ -1,482 +1,2940 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/bi/salmonella/vsnp/typhimurium-LT2/script_dependents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\bi\salmonella\vsnp\typhimurium-LT2\script_dependents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A968A2-9139-0344-A4F7-87400CBC0895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="2160" windowWidth="25780" windowHeight="24640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="64215" yWindow="2160" windowWidth="25785" windowHeight="24645" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="AE006468.2" sheetId="2" r:id="rId1"/>
+    <sheet name="filters" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="969">
   <si>
     <t>typhimurium-All</t>
   </si>
   <si>
-    <t>1000257</t>
-  </si>
-  <si>
-    <t>1000275</t>
-  </si>
-  <si>
-    <t>1000281</t>
-  </si>
-  <si>
-    <t>1000293</t>
-  </si>
-  <si>
-    <t>1000549</t>
-  </si>
-  <si>
-    <t>1091326</t>
-  </si>
-  <si>
-    <t>2739396</t>
-  </si>
-  <si>
-    <t>2851508</t>
-  </si>
-  <si>
-    <t>2853640</t>
-  </si>
-  <si>
-    <t>2853646</t>
-  </si>
-  <si>
-    <t>2874011</t>
-  </si>
-  <si>
-    <t>2874187</t>
-  </si>
-  <si>
-    <t>2874188</t>
-  </si>
-  <si>
-    <t>2874200</t>
-  </si>
-  <si>
-    <t>2874206</t>
-  </si>
-  <si>
-    <t>2874216</t>
-  </si>
-  <si>
-    <t>2874238</t>
-  </si>
-  <si>
-    <t>2874253</t>
-  </si>
-  <si>
-    <t>2874257</t>
-  </si>
-  <si>
-    <t>2874259</t>
-  </si>
-  <si>
-    <t>2874283</t>
-  </si>
-  <si>
-    <t>2874287</t>
-  </si>
-  <si>
-    <t>2874302</t>
-  </si>
-  <si>
-    <t>2874304</t>
-  </si>
-  <si>
-    <t>2875209</t>
-  </si>
-  <si>
-    <t>2875215</t>
-  </si>
-  <si>
-    <t>2875221</t>
-  </si>
-  <si>
-    <t>2875222</t>
-  </si>
-  <si>
-    <t>2875224</t>
-  </si>
-  <si>
-    <t>2876043</t>
-  </si>
-  <si>
-    <t>2877764</t>
-  </si>
-  <si>
-    <t>2877769</t>
-  </si>
-  <si>
-    <t>2877775</t>
-  </si>
-  <si>
-    <t>2877781</t>
+    <t>960294-1002017</t>
+  </si>
+  <si>
+    <t>1001531-1036138</t>
+  </si>
+  <si>
+    <t>1098179-1144020</t>
+  </si>
+  <si>
+    <t>1957835-1971770</t>
+  </si>
+  <si>
+    <t>2728976-2776890</t>
+  </si>
+  <si>
+    <t>2836642-2885742</t>
+  </si>
+  <si>
+    <t>2899840-2931190</t>
+  </si>
+  <si>
+    <t>4417918-4438335</t>
+  </si>
+  <si>
+    <t>1025020-1025738</t>
+  </si>
+  <si>
+    <t>1224130-1224197</t>
+  </si>
+  <si>
+    <t>1224682-1224749</t>
+  </si>
+  <si>
+    <t>2035583-2035659</t>
+  </si>
+  <si>
+    <t>2045623-2046339</t>
+  </si>
+  <si>
+    <t>2528936-2529013</t>
+  </si>
+  <si>
+    <t>2529054-2529131</t>
+  </si>
+  <si>
+    <t>2531836-2531911</t>
+  </si>
+  <si>
+    <t>2531957-2532034</t>
+  </si>
+  <si>
+    <t>2532074-2532149</t>
+  </si>
+  <si>
+    <t>2532154-2532231</t>
+  </si>
+  <si>
+    <t>2579219-2579937</t>
+  </si>
+  <si>
+    <t>2579220-2579938</t>
+  </si>
+  <si>
+    <t>2796440-2796573</t>
+  </si>
+  <si>
+    <t>294514-294646</t>
+  </si>
+  <si>
+    <t>294764-294906</t>
+  </si>
+  <si>
+    <t>294829-294905</t>
+  </si>
+  <si>
+    <t>2969930-2970008</t>
+  </si>
+  <si>
+    <t>2970200-2970278</t>
+  </si>
+  <si>
+    <t>2970478-2970556</t>
+  </si>
+  <si>
+    <t>304268-304344</t>
+  </si>
+  <si>
+    <t>3141065-3141147</t>
+  </si>
+  <si>
+    <t>3141070-3141146</t>
+  </si>
+  <si>
+    <t>3141171-3141253</t>
+  </si>
+  <si>
+    <t>3141176-3141252</t>
+  </si>
+  <si>
+    <t>3316846-3317058</t>
+  </si>
+  <si>
+    <t>3458510-3458586</t>
+  </si>
+  <si>
+    <t>3635059-3635775</t>
+  </si>
+  <si>
+    <t>3682922-3683126</t>
+  </si>
+  <si>
+    <t>4105115-4105248</t>
+  </si>
+  <si>
+    <t>4105118-4105250</t>
+  </si>
+  <si>
+    <t>4105231-4105373</t>
+  </si>
+  <si>
+    <t>4105296-4105372</t>
+  </si>
+  <si>
+    <t>4141148-4141234</t>
+  </si>
+  <si>
+    <t>4201309-4201439</t>
+  </si>
+  <si>
+    <t>4356380-4356510</t>
+  </si>
+  <si>
+    <t>4559283-4560001</t>
+  </si>
+  <si>
+    <t>4596435-4596511</t>
+  </si>
+  <si>
+    <t>4596667-4596743</t>
+  </si>
+  <si>
+    <t>4596899-4596975</t>
+  </si>
+  <si>
+    <t>4810878-4810966</t>
+  </si>
+  <si>
+    <t>738249-738327</t>
+  </si>
+  <si>
+    <t>738341-738416</t>
+  </si>
+  <si>
+    <t>738451-738526</t>
+  </si>
+  <si>
+    <t>738642-738720</t>
+  </si>
+  <si>
+    <t>818781-818858</t>
+  </si>
+  <si>
+    <t>818988-819065</t>
+  </si>
+  <si>
+    <t>819067-819144</t>
+  </si>
+  <si>
+    <t>819192-819269</t>
+  </si>
+  <si>
+    <t>819402-819479</t>
+  </si>
+  <si>
+    <t>906556-906624</t>
+  </si>
+  <si>
+    <t>906727-906939</t>
+  </si>
+  <si>
+    <t>908736-908804</t>
+  </si>
+  <si>
+    <t>3194213-3194932</t>
+  </si>
+  <si>
+    <t>3566871-3567005</t>
+  </si>
+  <si>
+    <t>4810646-4810733</t>
+  </si>
+  <si>
+    <t>4394606</t>
+  </si>
+  <si>
+    <t>2347460</t>
+  </si>
+  <si>
+    <t>3519534</t>
+  </si>
+  <si>
+    <t>3379059</t>
+  </si>
+  <si>
+    <t>63671</t>
+  </si>
+  <si>
+    <t>1853494</t>
+  </si>
+  <si>
+    <t>64366</t>
+  </si>
+  <si>
+    <t>3184233</t>
+  </si>
+  <si>
+    <t>64001</t>
+  </si>
+  <si>
+    <t>831774</t>
+  </si>
+  <si>
+    <t>3650265</t>
+  </si>
+  <si>
+    <t>65039</t>
+  </si>
+  <si>
+    <t>2223073</t>
+  </si>
+  <si>
+    <t>4624318</t>
+  </si>
+  <si>
+    <t>1853462</t>
+  </si>
+  <si>
+    <t>63587</t>
+  </si>
+  <si>
+    <t>3519708</t>
+  </si>
+  <si>
+    <t>3567193</t>
+  </si>
+  <si>
+    <t>3567779</t>
+  </si>
+  <si>
+    <t>1356960</t>
+  </si>
+  <si>
+    <t>3567192</t>
+  </si>
+  <si>
+    <t>4581501</t>
+  </si>
+  <si>
+    <t>3519711</t>
+  </si>
+  <si>
+    <t>3570281</t>
+  </si>
+  <si>
+    <t>874136</t>
+  </si>
+  <si>
+    <t>2077350</t>
+  </si>
+  <si>
+    <t>345024</t>
+  </si>
+  <si>
+    <t>63686</t>
+  </si>
+  <si>
+    <t>4105065</t>
+  </si>
+  <si>
+    <t>1286092</t>
+  </si>
+  <si>
+    <t>3123613</t>
+  </si>
+  <si>
+    <t>2631521</t>
+  </si>
+  <si>
+    <t>1224547</t>
+  </si>
+  <si>
+    <t>3519555</t>
+  </si>
+  <si>
+    <t>4399822</t>
+  </si>
+  <si>
+    <t>3518988</t>
+  </si>
+  <si>
+    <t>830290</t>
+  </si>
+  <si>
+    <t>1853147</t>
+  </si>
+  <si>
+    <t>4356243</t>
+  </si>
+  <si>
+    <t>3412313</t>
+  </si>
+  <si>
+    <t>290187</t>
+  </si>
+  <si>
+    <t>2798445</t>
+  </si>
+  <si>
+    <t>4012401</t>
+  </si>
+  <si>
+    <t>830742</t>
+  </si>
+  <si>
+    <t>3379061</t>
+  </si>
+  <si>
+    <t>4356085</t>
+  </si>
+  <si>
+    <t>4532841</t>
+  </si>
+  <si>
+    <t>4394447</t>
+  </si>
+  <si>
+    <t>830607</t>
+  </si>
+  <si>
+    <t>616844</t>
+  </si>
+  <si>
+    <t>552221</t>
+  </si>
+  <si>
+    <t>423270</t>
+  </si>
+  <si>
+    <t>4102008</t>
+  </si>
+  <si>
+    <t>2077338</t>
+  </si>
+  <si>
+    <t>4486911</t>
+  </si>
+  <si>
+    <t>1579846</t>
+  </si>
+  <si>
+    <t>832241</t>
+  </si>
+  <si>
+    <t>2631193</t>
+  </si>
+  <si>
+    <t>2134844</t>
+  </si>
+  <si>
+    <t>4196054</t>
+  </si>
+  <si>
+    <t>1853366</t>
+  </si>
+  <si>
+    <t>2728558</t>
+  </si>
+  <si>
+    <t>3196207</t>
+  </si>
+  <si>
+    <t>1039791</t>
+  </si>
+  <si>
+    <t>64490</t>
+  </si>
+  <si>
+    <t>64427</t>
+  </si>
+  <si>
+    <t>3568820</t>
+  </si>
+  <si>
+    <t>4101707</t>
+  </si>
+  <si>
+    <t>3519222</t>
+  </si>
+  <si>
+    <t>3178651</t>
+  </si>
+  <si>
+    <t>1177513</t>
+  </si>
+  <si>
+    <t>815291</t>
+  </si>
+  <si>
+    <t>3192161</t>
+  </si>
+  <si>
+    <t>2798070</t>
+  </si>
+  <si>
+    <t>4195814</t>
+  </si>
+  <si>
+    <t>4581466</t>
+  </si>
+  <si>
+    <t>2631523</t>
+  </si>
+  <si>
+    <t>65948</t>
+  </si>
+  <si>
+    <t>3519316</t>
+  </si>
+  <si>
+    <t>2798290</t>
+  </si>
+  <si>
+    <t>1870353</t>
+  </si>
+  <si>
+    <t>3629789</t>
+  </si>
+  <si>
+    <t>4674572</t>
+  </si>
+  <si>
+    <t>4350897</t>
+  </si>
+  <si>
+    <t>617286</t>
+  </si>
+  <si>
+    <t>66248</t>
+  </si>
+  <si>
+    <t>4853468</t>
+  </si>
+  <si>
+    <t>4581502</t>
+  </si>
+  <si>
+    <t>832102</t>
+  </si>
+  <si>
+    <t>1531937</t>
+  </si>
+  <si>
+    <t>65290</t>
+  </si>
+  <si>
+    <t>830164</t>
+  </si>
+  <si>
+    <t>4575480</t>
+  </si>
+  <si>
+    <t>4018196</t>
+  </si>
+  <si>
+    <t>4196404</t>
+  </si>
+  <si>
+    <t>3414352</t>
+  </si>
+  <si>
+    <t>1975492</t>
+  </si>
+  <si>
+    <t>64112</t>
+  </si>
+  <si>
+    <t>4102001</t>
+  </si>
+  <si>
+    <t>1314689</t>
+  </si>
+  <si>
+    <t>1167114</t>
+  </si>
+  <si>
+    <t>3520962</t>
+  </si>
+  <si>
+    <t>4351055</t>
+  </si>
+  <si>
+    <t>832646</t>
+  </si>
+  <si>
+    <t>3519298</t>
+  </si>
+  <si>
+    <t>289092</t>
+  </si>
+  <si>
+    <t>831183</t>
+  </si>
+  <si>
+    <t>3629825</t>
+  </si>
+  <si>
+    <t>3379073</t>
+  </si>
+  <si>
+    <t>1457662</t>
+  </si>
+  <si>
+    <t>3814149</t>
+  </si>
+  <si>
+    <t>1039812</t>
+  </si>
+  <si>
+    <t>1177631</t>
+  </si>
+  <si>
+    <t>3521499</t>
+  </si>
+  <si>
+    <t>2631447</t>
+  </si>
+  <si>
+    <t>2348093</t>
+  </si>
+  <si>
+    <t>4198105</t>
+  </si>
+  <si>
+    <t>291372</t>
+  </si>
+  <si>
+    <t>891032</t>
+  </si>
+  <si>
+    <t>1224542</t>
+  </si>
+  <si>
+    <t>3184227</t>
+  </si>
+  <si>
+    <t>63977</t>
+  </si>
+  <si>
+    <t>2141116</t>
+  </si>
+  <si>
+    <t>66211</t>
+  </si>
+  <si>
+    <t>1177530</t>
+  </si>
+  <si>
+    <t>3518843</t>
+  </si>
+  <si>
+    <t>819673</t>
+  </si>
+  <si>
+    <t>617326</t>
+  </si>
+  <si>
+    <t>1654944</t>
+  </si>
+  <si>
+    <t>2631495</t>
+  </si>
+  <si>
+    <t>4356252</t>
+  </si>
+  <si>
+    <t>2232321</t>
+  </si>
+  <si>
+    <t>4013119</t>
+  </si>
+  <si>
+    <t>2343548</t>
+  </si>
+  <si>
+    <t>1039773</t>
+  </si>
+  <si>
+    <t>4099887</t>
+  </si>
+  <si>
+    <t>830614</t>
+  </si>
+  <si>
+    <t>3973499</t>
+  </si>
+  <si>
+    <t>3521754</t>
+  </si>
+  <si>
+    <t>1767397</t>
+  </si>
+  <si>
+    <t>2796714</t>
+  </si>
+  <si>
+    <t>3520584</t>
+  </si>
+  <si>
+    <t>1531993</t>
+  </si>
+  <si>
+    <t>2343555</t>
+  </si>
+  <si>
+    <t>830667</t>
+  </si>
+  <si>
+    <t>1532025</t>
+  </si>
+  <si>
+    <t>604228</t>
+  </si>
+  <si>
+    <t>4581474</t>
+  </si>
+  <si>
+    <t>64223</t>
+  </si>
+  <si>
+    <t>1531996</t>
+  </si>
+  <si>
+    <t>1853163</t>
+  </si>
+  <si>
+    <t>225426</t>
+  </si>
+  <si>
+    <t>4101923</t>
+  </si>
+  <si>
+    <t>2798069</t>
+  </si>
+  <si>
+    <t>831867</t>
+  </si>
+  <si>
+    <t>2232177</t>
+  </si>
+  <si>
+    <t>65135</t>
+  </si>
+  <si>
+    <t>4198106</t>
+  </si>
+  <si>
+    <t>4100063</t>
+  </si>
+  <si>
+    <t>63893</t>
+  </si>
+  <si>
+    <t>3519618</t>
+  </si>
+  <si>
+    <t>3521401</t>
+  </si>
+  <si>
+    <t>1531990</t>
+  </si>
+  <si>
+    <t>2728549</t>
+  </si>
+  <si>
+    <t>830997</t>
+  </si>
+  <si>
+    <t>832344</t>
+  </si>
+  <si>
+    <t>2728552</t>
+  </si>
+  <si>
+    <t>353886</t>
+  </si>
+  <si>
+    <t>230365</t>
+  </si>
+  <si>
+    <t>4195990</t>
+  </si>
+  <si>
+    <t>1531953</t>
+  </si>
+  <si>
+    <t>291214</t>
+  </si>
+  <si>
+    <t>2347575</t>
+  </si>
+  <si>
+    <t>1177610</t>
+  </si>
+  <si>
+    <t>3519573</t>
+  </si>
+  <si>
+    <t>1853018</t>
+  </si>
+  <si>
+    <t>3006037</t>
+  </si>
+  <si>
+    <t>2281139</t>
+  </si>
+  <si>
+    <t>3691857</t>
+  </si>
+  <si>
+    <t>66101</t>
+  </si>
+  <si>
+    <t>3717264</t>
+  </si>
+  <si>
+    <t>676195</t>
+  </si>
+  <si>
+    <t>64124</t>
+  </si>
+  <si>
+    <t>3521352</t>
+  </si>
+  <si>
+    <t>832410</t>
+  </si>
+  <si>
+    <t>3519033</t>
+  </si>
+  <si>
+    <t>64318</t>
+  </si>
+  <si>
+    <t>830784</t>
+  </si>
+  <si>
+    <t>3572164</t>
+  </si>
+  <si>
+    <t>830359</t>
+  </si>
+  <si>
+    <t>1853361</t>
+  </si>
+  <si>
+    <t>832440</t>
+  </si>
+  <si>
+    <t>63578</t>
+  </si>
+  <si>
+    <t>66158</t>
+  </si>
+  <si>
+    <t>3521139</t>
+  </si>
+  <si>
+    <t>4351125</t>
+  </si>
+  <si>
+    <t>830350</t>
+  </si>
+  <si>
+    <t>4100237</t>
+  </si>
+  <si>
+    <t>2201019</t>
+  </si>
+  <si>
+    <t>1853013</t>
+  </si>
+  <si>
+    <t>2441636</t>
+  </si>
+  <si>
+    <t>63581</t>
+  </si>
+  <si>
+    <t>4012460</t>
+  </si>
+  <si>
+    <t>832098</t>
+  </si>
+  <si>
+    <t>1177692</t>
+  </si>
+  <si>
+    <t>2231227</t>
+  </si>
+  <si>
+    <t>4013328</t>
+  </si>
+  <si>
+    <t>4551693</t>
+  </si>
+  <si>
+    <t>64531</t>
+  </si>
+  <si>
+    <t>4581514</t>
+  </si>
+  <si>
+    <t>831864</t>
+  </si>
+  <si>
+    <t>1551074</t>
+  </si>
+  <si>
+    <t>874140</t>
+  </si>
+  <si>
+    <t>289100</t>
+  </si>
+  <si>
+    <t>2232234</t>
+  </si>
+  <si>
+    <t>1853364</t>
+  </si>
+  <si>
+    <t>4350885</t>
+  </si>
+  <si>
+    <t>3414708</t>
+  </si>
+  <si>
+    <t>1177630</t>
+  </si>
+  <si>
+    <t>830308</t>
+  </si>
+  <si>
+    <t>831225</t>
+  </si>
+  <si>
+    <t>3095597</t>
+  </si>
+  <si>
+    <t>65882</t>
+  </si>
+  <si>
+    <t>790679</t>
+  </si>
+  <si>
+    <t>2799735</t>
+  </si>
+  <si>
+    <t>2798446</t>
+  </si>
+  <si>
+    <t>66210</t>
+  </si>
+  <si>
+    <t>3521345</t>
+  </si>
+  <si>
+    <t>2232318</t>
+  </si>
+  <si>
+    <t>2799929</t>
+  </si>
+  <si>
+    <t>830446</t>
+  </si>
+  <si>
+    <t>2277039</t>
+  </si>
+  <si>
+    <t>2405373</t>
+  </si>
+  <si>
+    <t>63652</t>
+  </si>
+  <si>
+    <t>832083</t>
+  </si>
+  <si>
+    <t>65216</t>
+  </si>
+  <si>
+    <t>3092926</t>
+  </si>
+  <si>
+    <t>3413565</t>
+  </si>
+  <si>
+    <t>3519726</t>
+  </si>
+  <si>
+    <t>3519785</t>
+  </si>
+  <si>
+    <t>830152</t>
+  </si>
+  <si>
+    <t>832446</t>
+  </si>
+  <si>
+    <t>66215</t>
+  </si>
+  <si>
+    <t>2937602</t>
+  </si>
+  <si>
+    <t>4201443</t>
+  </si>
+  <si>
+    <t>64113</t>
+  </si>
+  <si>
+    <t>2347521</t>
+  </si>
+  <si>
+    <t>3519516</t>
+  </si>
+  <si>
+    <t>3521340</t>
+  </si>
+  <si>
+    <t>2631517</t>
+  </si>
+  <si>
+    <t>2079931</t>
+  </si>
+  <si>
+    <t>4099902</t>
+  </si>
+  <si>
+    <t>63968</t>
+  </si>
+  <si>
+    <t>712060</t>
+  </si>
+  <si>
+    <t>4195984</t>
+  </si>
+  <si>
+    <t>3184220</t>
+  </si>
+  <si>
+    <t>830251</t>
+  </si>
+  <si>
+    <t>3521337</t>
+  </si>
+  <si>
+    <t>2631489</t>
+  </si>
+  <si>
+    <t>4356261</t>
+  </si>
+  <si>
+    <t>4552468</t>
+  </si>
+  <si>
+    <t>832089</t>
+  </si>
+  <si>
+    <t>3519210</t>
+  </si>
+  <si>
+    <t>2343203</t>
+  </si>
+  <si>
+    <t>4614602</t>
+  </si>
+  <si>
+    <t>2228887</t>
+  </si>
+  <si>
+    <t>289098</t>
+  </si>
+  <si>
+    <t>3168121</t>
+  </si>
+  <si>
+    <t>1177525</t>
+  </si>
+  <si>
+    <t>2343542</t>
+  </si>
+  <si>
+    <t>3330104</t>
+  </si>
+  <si>
+    <t>290736</t>
+  </si>
+  <si>
+    <t>3521447</t>
+  </si>
+  <si>
+    <t>698288</t>
+  </si>
+  <si>
+    <t>3521342</t>
+  </si>
+  <si>
+    <t>3519192</t>
+  </si>
+  <si>
+    <t>3879143</t>
+  </si>
+  <si>
+    <t>4375252</t>
+  </si>
+  <si>
+    <t>4199331</t>
+  </si>
+  <si>
+    <t>4195993</t>
+  </si>
+  <si>
+    <t>3521402</t>
+  </si>
+  <si>
+    <t>3519732</t>
+  </si>
+  <si>
+    <t>830781</t>
+  </si>
+  <si>
+    <t>2800109</t>
+  </si>
+  <si>
+    <t>4198671</t>
+  </si>
+  <si>
+    <t>4351392</t>
+  </si>
+  <si>
+    <t>1177685</t>
+  </si>
+  <si>
+    <t>3379075</t>
+  </si>
+  <si>
+    <t>2232228</t>
+  </si>
+  <si>
+    <t>3932604</t>
+  </si>
+  <si>
+    <t>2796431</t>
+  </si>
+  <si>
+    <t>3568773</t>
+  </si>
+  <si>
+    <t>3521667</t>
+  </si>
+  <si>
+    <t>63566</t>
+  </si>
+  <si>
+    <t>1039689</t>
+  </si>
+  <si>
+    <t>1668371</t>
+  </si>
+  <si>
+    <t>1177556</t>
+  </si>
+  <si>
+    <t>3521591</t>
+  </si>
+  <si>
+    <t>3521523</t>
+  </si>
+  <si>
+    <t>4581477</t>
+  </si>
+  <si>
+    <t>342844</t>
+  </si>
+  <si>
+    <t>2049523</t>
+  </si>
+  <si>
+    <t>51690</t>
+  </si>
+  <si>
+    <t>831633</t>
+  </si>
+  <si>
+    <t>3519414</t>
+  </si>
+  <si>
+    <t>830236</t>
+  </si>
+  <si>
+    <t>3413587</t>
+  </si>
+  <si>
+    <t>831684</t>
+  </si>
+  <si>
+    <t>698330</t>
+  </si>
+  <si>
+    <t>4356246</t>
+  </si>
+  <si>
+    <t>2232268</t>
+  </si>
+  <si>
+    <t>830613</t>
+  </si>
+  <si>
+    <t>4399949</t>
+  </si>
+  <si>
+    <t>3519291</t>
+  </si>
+  <si>
+    <t>291212</t>
+  </si>
+  <si>
+    <t>2411291</t>
+  </si>
+  <si>
+    <t>1526009</t>
+  </si>
+  <si>
+    <t>290313</t>
+  </si>
+  <si>
+    <t>1853043</t>
+  </si>
+  <si>
+    <t>832645</t>
+  </si>
+  <si>
+    <t>64454</t>
+  </si>
+  <si>
+    <t>2082168</t>
+  </si>
+  <si>
+    <t>3521448</t>
   </si>
   <si>
     <t>3519150</t>
   </si>
   <si>
+    <t>66151</t>
+  </si>
+  <si>
+    <t>4201445</t>
+  </si>
+  <si>
+    <t>2800108</t>
+  </si>
+  <si>
+    <t>3379036</t>
+  </si>
+  <si>
+    <t>4853467</t>
+  </si>
+  <si>
+    <t>831681</t>
+  </si>
+  <si>
+    <t>2796735</t>
+  </si>
+  <si>
+    <t>4399648</t>
+  </si>
+  <si>
+    <t>830556</t>
+  </si>
+  <si>
+    <t>4552481</t>
+  </si>
+  <si>
+    <t>3645858</t>
+  </si>
+  <si>
+    <t>2797928</t>
+  </si>
+  <si>
+    <t>1177658</t>
+  </si>
+  <si>
+    <t>831189</t>
+  </si>
+  <si>
+    <t>2631456</t>
+  </si>
+  <si>
+    <t>3520566</t>
+  </si>
+  <si>
+    <t>2281237</t>
+  </si>
+  <si>
+    <t>3519786</t>
+  </si>
+  <si>
+    <t>4581475</t>
+  </si>
+  <si>
+    <t>3519317</t>
+  </si>
+  <si>
+    <t>815341</t>
+  </si>
+  <si>
+    <t>2799630</t>
+  </si>
+  <si>
+    <t>3167601</t>
+  </si>
+  <si>
+    <t>3629756</t>
+  </si>
+  <si>
+    <t>1853217</t>
+  </si>
+  <si>
+    <t>4196321</t>
+  </si>
+  <si>
+    <t>423276</t>
+  </si>
+  <si>
+    <t>3362093</t>
+  </si>
+  <si>
+    <t>832959</t>
+  </si>
+  <si>
+    <t>4195826</t>
+  </si>
+  <si>
+    <t>64484</t>
+  </si>
+  <si>
+    <t>2631472</t>
+  </si>
+  <si>
+    <t>3717407</t>
+  </si>
+  <si>
+    <t>832062</t>
+  </si>
+  <si>
+    <t>3586545</t>
+  </si>
+  <si>
+    <t>65891</t>
+  </si>
+  <si>
+    <t>830721</t>
+  </si>
+  <si>
+    <t>1157430</t>
+  </si>
+  <si>
+    <t>3519084</t>
+  </si>
+  <si>
+    <t>4105059</t>
+  </si>
+  <si>
+    <t>3521439</t>
+  </si>
+  <si>
+    <t>39957</t>
+  </si>
+  <si>
+    <t>4278413</t>
+  </si>
+  <si>
+    <t>2077383</t>
+  </si>
+  <si>
+    <t>3520542</t>
+  </si>
+  <si>
+    <t>4100127</t>
+  </si>
+  <si>
+    <t>64448</t>
+  </si>
+  <si>
+    <t>1187025</t>
+  </si>
+  <si>
+    <t>617288</t>
+  </si>
+  <si>
+    <t>3519315</t>
+  </si>
+  <si>
+    <t>832254</t>
+  </si>
+  <si>
+    <t>3520638</t>
+  </si>
+  <si>
+    <t>63656</t>
+  </si>
+  <si>
+    <t>4101167</t>
+  </si>
+  <si>
+    <t>832647</t>
+  </si>
+  <si>
+    <t>1187398</t>
+  </si>
+  <si>
+    <t>3521526</t>
+  </si>
+  <si>
+    <t>290186</t>
+  </si>
+  <si>
+    <t>2798447</t>
+  </si>
+  <si>
+    <t>616848</t>
+  </si>
+  <si>
+    <t>4399938</t>
+  </si>
+  <si>
+    <t>771107</t>
+  </si>
+  <si>
+    <t>3521445</t>
+  </si>
+  <si>
+    <t>3572174</t>
+  </si>
+  <si>
+    <t>64469</t>
+  </si>
+  <si>
+    <t>832548</t>
+  </si>
+  <si>
+    <t>4102154</t>
+  </si>
+  <si>
+    <t>3629600</t>
+  </si>
+  <si>
+    <t>3521575</t>
+  </si>
+  <si>
+    <t>3519660</t>
+  </si>
+  <si>
+    <t>2228883</t>
+  </si>
+  <si>
+    <t>3521664</t>
+  </si>
+  <si>
+    <t>4100065</t>
+  </si>
+  <si>
+    <t>4102017</t>
+  </si>
+  <si>
+    <t>830617</t>
+  </si>
+  <si>
+    <t>3518991</t>
+  </si>
+  <si>
+    <t>830769</t>
+  </si>
+  <si>
+    <t>2887870</t>
+  </si>
+  <si>
+    <t>3520935</t>
+  </si>
+  <si>
+    <t>4356514</t>
+  </si>
+  <si>
+    <t>3737574</t>
+  </si>
+  <si>
+    <t>2480519</t>
+  </si>
+  <si>
+    <t>3519297</t>
+  </si>
+  <si>
+    <t>2232189</t>
+  </si>
+  <si>
+    <t>2348834</t>
+  </si>
+  <si>
+    <t>830610</t>
+  </si>
+  <si>
+    <t>3379054</t>
+  </si>
+  <si>
+    <t>830558</t>
+  </si>
+  <si>
+    <t>1177664</t>
+  </si>
+  <si>
+    <t>4013095</t>
+  </si>
+  <si>
+    <t>4353179</t>
+  </si>
+  <si>
+    <t>830622</t>
+  </si>
+  <si>
+    <t>4201459</t>
+  </si>
+  <si>
+    <t>830553</t>
+  </si>
+  <si>
+    <t>66384</t>
+  </si>
+  <si>
+    <t>64544</t>
+  </si>
+  <si>
+    <t>2620811</t>
+  </si>
+  <si>
+    <t>1853016</t>
+  </si>
+  <si>
+    <t>4013311</t>
+  </si>
+  <si>
+    <t>3184221</t>
+  </si>
+  <si>
+    <t>2801204</t>
+  </si>
+  <si>
+    <t>4101698</t>
+  </si>
+  <si>
+    <t>832659</t>
+  </si>
+  <si>
+    <t>830229</t>
+  </si>
+  <si>
+    <t>291195</t>
+  </si>
+  <si>
+    <t>63776</t>
+  </si>
+  <si>
+    <t>66254</t>
+  </si>
+  <si>
+    <t>64331</t>
+  </si>
+  <si>
+    <t>3567194</t>
+  </si>
+  <si>
+    <t>63659</t>
+  </si>
+  <si>
+    <t>4102178</t>
+  </si>
+  <si>
+    <t>832812</t>
+  </si>
+  <si>
+    <t>4353176</t>
+  </si>
+  <si>
+    <t>4489821</t>
+  </si>
+  <si>
+    <t>2631198</t>
+  </si>
+  <si>
+    <t>63959</t>
+  </si>
+  <si>
+    <t>832911</t>
+  </si>
+  <si>
+    <t>832833</t>
+  </si>
+  <si>
+    <t>4562250</t>
+  </si>
+  <si>
+    <t>2777027</t>
+  </si>
+  <si>
+    <t>3196143</t>
+  </si>
+  <si>
+    <t>2631525</t>
+  </si>
+  <si>
+    <t>4100064</t>
+  </si>
+  <si>
+    <t>2232230</t>
+  </si>
+  <si>
+    <t>290319</t>
+  </si>
+  <si>
+    <t>51696</t>
+  </si>
+  <si>
+    <t>1417834</t>
+  </si>
+  <si>
+    <t>3567055</t>
+  </si>
+  <si>
+    <t>4710880</t>
+  </si>
+  <si>
+    <t>830787</t>
+  </si>
+  <si>
+    <t>4356265</t>
+  </si>
+  <si>
+    <t>290202</t>
+  </si>
+  <si>
+    <t>2348154</t>
+  </si>
+  <si>
+    <t>4012684</t>
+  </si>
+  <si>
+    <t>4394670</t>
+  </si>
+  <si>
+    <t>2340439</t>
+  </si>
+  <si>
+    <t>697092</t>
+  </si>
+  <si>
+    <t>4399660</t>
+  </si>
+  <si>
+    <t>617790</t>
+  </si>
+  <si>
+    <t>64382</t>
+  </si>
+  <si>
+    <t>1532002</t>
+  </si>
+  <si>
+    <t>3139534</t>
+  </si>
+  <si>
+    <t>3272515</t>
+  </si>
+  <si>
+    <t>2800111</t>
+  </si>
+  <si>
+    <t>66326</t>
+  </si>
+  <si>
+    <t>4201452</t>
+  </si>
+  <si>
+    <t>4198089</t>
+  </si>
+  <si>
+    <t>830437</t>
+  </si>
+  <si>
+    <t>3379053</t>
+  </si>
+  <si>
+    <t>4356259</t>
+  </si>
+  <si>
+    <t>3567012</t>
+  </si>
+  <si>
+    <t>2631500</t>
+  </si>
+  <si>
+    <t>66154</t>
+  </si>
+  <si>
+    <t>4198097</t>
+  </si>
+  <si>
+    <t>3629675</t>
+  </si>
+  <si>
+    <t>3567061</t>
+  </si>
+  <si>
+    <t>2348873</t>
+  </si>
+  <si>
+    <t>830440</t>
+  </si>
+  <si>
+    <t>1457672</t>
+  </si>
+  <si>
+    <t>75491</t>
+  </si>
+  <si>
+    <t>359831</t>
+  </si>
+  <si>
+    <t>1177632</t>
+  </si>
+  <si>
+    <t>2798141</t>
+  </si>
+  <si>
+    <t>832233</t>
+  </si>
+  <si>
+    <t>1779626</t>
+  </si>
+  <si>
+    <t>2167499</t>
+  </si>
+  <si>
+    <t>4674553</t>
+  </si>
+  <si>
+    <t>2348178</t>
+  </si>
+  <si>
+    <t>190334</t>
+  </si>
+  <si>
+    <t>4101928</t>
+  </si>
+  <si>
+    <t>3413863</t>
+  </si>
+  <si>
+    <t>832665</t>
+  </si>
+  <si>
+    <t>830958</t>
+  </si>
+  <si>
+    <t>3063469</t>
+  </si>
+  <si>
+    <t>290732</t>
+  </si>
+  <si>
+    <t>830754</t>
+  </si>
+  <si>
+    <t>3362106</t>
+  </si>
+  <si>
+    <t>4399821</t>
+  </si>
+  <si>
+    <t>290733</t>
+  </si>
+  <si>
+    <t>617298</t>
+  </si>
+  <si>
+    <t>1726355</t>
+  </si>
+  <si>
+    <t>830254</t>
+  </si>
+  <si>
+    <t>2353255</t>
+  </si>
+  <si>
+    <t>830228</t>
+  </si>
+  <si>
+    <t>2798455</t>
+  </si>
+  <si>
+    <t>1532030</t>
+  </si>
+  <si>
+    <t>173981</t>
+  </si>
+  <si>
+    <t>2888298</t>
+  </si>
+  <si>
+    <t>290185</t>
+  </si>
+  <si>
+    <t>1177565</t>
+  </si>
+  <si>
+    <t>4101700</t>
+  </si>
+  <si>
+    <t>4356245</t>
+  </si>
+  <si>
+    <t>831723</t>
+  </si>
+  <si>
+    <t>832389</t>
+  </si>
+  <si>
+    <t>2798457</t>
+  </si>
+  <si>
+    <t>2887130</t>
+  </si>
+  <si>
+    <t>65117</t>
+  </si>
+  <si>
+    <t>3521346</t>
+  </si>
+  <si>
+    <t>63665</t>
+  </si>
+  <si>
+    <t>4356272</t>
+  </si>
+  <si>
+    <t>2800101</t>
+  </si>
+  <si>
+    <t>2012626</t>
+  </si>
+  <si>
+    <t>65896</t>
+  </si>
+  <si>
+    <t>4228459</t>
+  </si>
+  <si>
+    <t>2728560</t>
+  </si>
+  <si>
+    <t>830559</t>
+  </si>
+  <si>
+    <t>830955</t>
+  </si>
+  <si>
+    <t>832453</t>
+  </si>
+  <si>
+    <t>65894</t>
+  </si>
+  <si>
+    <t>3077666</t>
+  </si>
+  <si>
+    <t>66212</t>
+  </si>
+  <si>
+    <t>4198680</t>
+  </si>
+  <si>
+    <t>1532005</t>
+  </si>
+  <si>
+    <t>4012810</t>
+  </si>
+  <si>
+    <t>4201440</t>
+  </si>
+  <si>
+    <t>4102096</t>
+  </si>
+  <si>
+    <t>2077453</t>
+  </si>
+  <si>
+    <t>2347743</t>
+  </si>
+  <si>
+    <t>617316</t>
+  </si>
+  <si>
+    <t>4351064</t>
+  </si>
+  <si>
+    <t>4012399</t>
+  </si>
+  <si>
+    <t>3077013</t>
+  </si>
+  <si>
+    <t>4196164</t>
+  </si>
+  <si>
+    <t>3519721</t>
+  </si>
+  <si>
+    <t>859180</t>
+  </si>
+  <si>
+    <t>4102354</t>
+  </si>
+  <si>
+    <t>832407</t>
+  </si>
+  <si>
+    <t>418158</t>
+  </si>
+  <si>
+    <t>1564127</t>
+  </si>
+  <si>
+    <t>3520407</t>
+  </si>
+  <si>
+    <t>4356275</t>
+  </si>
+  <si>
+    <t>4013034</t>
+  </si>
+  <si>
+    <t>1177646</t>
+  </si>
+  <si>
+    <t>3519168</t>
+  </si>
+  <si>
+    <t>4561995</t>
+  </si>
+  <si>
+    <t>2789518</t>
+  </si>
+  <si>
+    <t>831651</t>
+  </si>
+  <si>
+    <t>3077911</t>
+  </si>
+  <si>
+    <t>3192035</t>
+  </si>
+  <si>
+    <t>3196189</t>
+  </si>
+  <si>
+    <t>4201465</t>
+  </si>
+  <si>
+    <t>2631194</t>
+  </si>
+  <si>
+    <t>1852942</t>
+  </si>
+  <si>
+    <t>291202</t>
+  </si>
+  <si>
+    <t>3413868</t>
+  </si>
+  <si>
+    <t>294502</t>
+  </si>
+  <si>
+    <t>289429</t>
+  </si>
+  <si>
+    <t>3629579</t>
+  </si>
+  <si>
+    <t>832236</t>
+  </si>
+  <si>
+    <t>4100057</t>
+  </si>
+  <si>
+    <t>3629879</t>
+  </si>
+  <si>
+    <t>2232186</t>
+  </si>
+  <si>
+    <t>4042763</t>
+  </si>
+  <si>
+    <t>290742</t>
+  </si>
+  <si>
+    <t>4351062</t>
+  </si>
+  <si>
+    <t>3567781</t>
+  </si>
+  <si>
+    <t>1853465</t>
+  </si>
+  <si>
+    <t>2082161</t>
+  </si>
+  <si>
+    <t>832230</t>
+  </si>
+  <si>
+    <t>4351061</t>
+  </si>
+  <si>
+    <t>4102018</t>
+  </si>
+  <si>
+    <t>2187382</t>
+  </si>
+  <si>
+    <t>63707</t>
+  </si>
+  <si>
+    <t>2631132</t>
+  </si>
+  <si>
+    <t>832428</t>
+  </si>
+  <si>
+    <t>2348370</t>
+  </si>
+  <si>
+    <t>616845</t>
+  </si>
+  <si>
+    <t>64343</t>
+  </si>
+  <si>
+    <t>2169162</t>
+  </si>
+  <si>
+    <t>4356256</t>
+  </si>
+  <si>
+    <t>4195991</t>
+  </si>
+  <si>
+    <t>4102009</t>
+  </si>
+  <si>
+    <t>1637018</t>
+  </si>
+  <si>
+    <t>830353</t>
+  </si>
+  <si>
+    <t>3570407</t>
+  </si>
+  <si>
+    <t>2347869</t>
+  </si>
+  <si>
+    <t>120576</t>
+  </si>
+  <si>
+    <t>3521409</t>
+  </si>
+  <si>
+    <t>2631435</t>
+  </si>
+  <si>
+    <t>3283889</t>
+  </si>
+  <si>
+    <t>2232213</t>
+  </si>
+  <si>
+    <t>4101697</t>
+  </si>
+  <si>
+    <t>4399943</t>
+  </si>
+  <si>
+    <t>2079932</t>
+  </si>
+  <si>
+    <t>2263595</t>
+  </si>
+  <si>
+    <t>1827522</t>
+  </si>
+  <si>
+    <t>65888</t>
+  </si>
+  <si>
+    <t>4356087</t>
+  </si>
+  <si>
+    <t>3519224</t>
+  </si>
+  <si>
+    <t>3521606</t>
+  </si>
+  <si>
+    <t>64107</t>
+  </si>
+  <si>
+    <t>2796865</t>
+  </si>
+  <si>
+    <t>4356086</t>
+  </si>
+  <si>
+    <t>2631474</t>
+  </si>
+  <si>
+    <t>2937241</t>
+  </si>
+  <si>
+    <t>3518877</t>
+  </si>
+  <si>
+    <t>831195</t>
+  </si>
+  <si>
+    <t>1564115</t>
+  </si>
+  <si>
+    <t>2347866</t>
+  </si>
+  <si>
+    <t>2353265</t>
+  </si>
+  <si>
+    <t>832302</t>
+  </si>
+  <si>
+    <t>66149</t>
+  </si>
+  <si>
+    <t>3628934</t>
+  </si>
+  <si>
+    <t>2347835</t>
+  </si>
+  <si>
+    <t>2347519</t>
+  </si>
+  <si>
+    <t>4196515</t>
+  </si>
+  <si>
+    <t>4102020</t>
+  </si>
+  <si>
+    <t>65288</t>
+  </si>
+  <si>
+    <t>3629747</t>
+  </si>
+  <si>
+    <t>4012516</t>
+  </si>
+  <si>
+    <t>830206</t>
+  </si>
+  <si>
+    <t>2480498</t>
+  </si>
+  <si>
+    <t>3571765</t>
+  </si>
+  <si>
+    <t>3519729</t>
+  </si>
+  <si>
+    <t>1177657</t>
+  </si>
+  <si>
+    <t>4350900</t>
+  </si>
+  <si>
+    <t>4581531</t>
+  </si>
+  <si>
     <t>3519159</t>
   </si>
   <si>
-    <t>3519168</t>
-  </si>
-  <si>
-    <t>3519210</t>
+    <t>689588</t>
+  </si>
+  <si>
+    <t>3430161</t>
+  </si>
+  <si>
+    <t>830520</t>
+  </si>
+  <si>
+    <t>2631438</t>
+  </si>
+  <si>
+    <t>832101</t>
+  </si>
+  <si>
+    <t>3628936</t>
+  </si>
+  <si>
+    <t>3425100</t>
+  </si>
+  <si>
+    <t>766225</t>
+  </si>
+  <si>
+    <t>63641</t>
+  </si>
+  <si>
+    <t>831144</t>
+  </si>
+  <si>
+    <t>64106</t>
+  </si>
+  <si>
+    <t>2796866</t>
+  </si>
+  <si>
+    <t>4575477</t>
+  </si>
+  <si>
+    <t>3414248</t>
+  </si>
+  <si>
+    <t>64562</t>
+  </si>
+  <si>
+    <t>3520920</t>
+  </si>
+  <si>
+    <t>587902</t>
+  </si>
+  <si>
+    <t>2089140</t>
+  </si>
+  <si>
+    <t>4195754</t>
+  </si>
+  <si>
+    <t>64325</t>
+  </si>
+  <si>
+    <t>698314</t>
+  </si>
+  <si>
+    <t>2798437</t>
+  </si>
+  <si>
+    <t>3520653</t>
+  </si>
+  <si>
+    <t>4012776</t>
+  </si>
+  <si>
+    <t>66146</t>
+  </si>
+  <si>
+    <t>4665639</t>
+  </si>
+  <si>
+    <t>4198743</t>
+  </si>
+  <si>
+    <t>3520404</t>
+  </si>
+  <si>
+    <t>3568618</t>
+  </si>
+  <si>
+    <t>832671</t>
+  </si>
+  <si>
+    <t>3291881</t>
+  </si>
+  <si>
+    <t>4356271</t>
+  </si>
+  <si>
+    <t>3094489</t>
+  </si>
+  <si>
+    <t>64565</t>
+  </si>
+  <si>
+    <t>2348398</t>
+  </si>
+  <si>
+    <t>761018</t>
+  </si>
+  <si>
+    <t>830209</t>
+  </si>
+  <si>
+    <t>4201454</t>
+  </si>
+  <si>
+    <t>4394937</t>
+  </si>
+  <si>
+    <t>66161</t>
+  </si>
+  <si>
+    <t>3568764</t>
   </si>
   <si>
     <t>3519219</t>
   </si>
   <si>
-    <t>3519291</t>
-  </si>
-  <si>
-    <t>3519297</t>
-  </si>
-  <si>
-    <t>3519298</t>
-  </si>
-  <si>
-    <t>3519315</t>
-  </si>
-  <si>
-    <t>3519316</t>
-  </si>
-  <si>
-    <t>3519317</t>
-  </si>
-  <si>
-    <t>3521591</t>
+    <t>4013339</t>
+  </si>
+  <si>
+    <t>291203</t>
+  </si>
+  <si>
+    <t>2027033</t>
+  </si>
+  <si>
+    <t>63620</t>
+  </si>
+  <si>
+    <t>4486857</t>
+  </si>
+  <si>
+    <t>832658</t>
+  </si>
+  <si>
+    <t>2800107</t>
+  </si>
+  <si>
+    <t>3519552</t>
+  </si>
+  <si>
+    <t>4399935</t>
+  </si>
+  <si>
+    <t>4012807</t>
+  </si>
+  <si>
+    <t>830443</t>
+  </si>
+  <si>
+    <t>4399755</t>
+  </si>
+  <si>
+    <t>3563956</t>
+  </si>
+  <si>
+    <t>3168125</t>
+  </si>
+  <si>
+    <t>2799806</t>
+  </si>
+  <si>
+    <t>3520929</t>
+  </si>
+  <si>
+    <t>64559</t>
+  </si>
+  <si>
+    <t>1206225</t>
+  </si>
+  <si>
+    <t>3520950</t>
+  </si>
+  <si>
+    <t>1955670</t>
+  </si>
+  <si>
+    <t>831015</t>
+  </si>
+  <si>
+    <t>1286105</t>
+  </si>
+  <si>
+    <t>4195829</t>
+  </si>
+  <si>
+    <t>1187391</t>
+  </si>
+  <si>
+    <t>3521292</t>
+  </si>
+  <si>
+    <t>831255</t>
+  </si>
+  <si>
+    <t>830538</t>
+  </si>
+  <si>
+    <t>4394607</t>
+  </si>
+  <si>
+    <t>3520230</t>
+  </si>
+  <si>
+    <t>831078</t>
+  </si>
+  <si>
+    <t>1177527</t>
+  </si>
+  <si>
+    <t>4012514</t>
+  </si>
+  <si>
+    <t>2801414</t>
+  </si>
+  <si>
+    <t>3518760</t>
+  </si>
+  <si>
+    <t>830179</t>
+  </si>
+  <si>
+    <t>2347458</t>
+  </si>
+  <si>
+    <t>2728555</t>
+  </si>
+  <si>
+    <t>3412300</t>
+  </si>
+  <si>
+    <t>1177689</t>
+  </si>
+  <si>
+    <t>1177593</t>
+  </si>
+  <si>
+    <t>3521751</t>
+  </si>
+  <si>
+    <t>3519221</t>
+  </si>
+  <si>
+    <t>1624343</t>
+  </si>
+  <si>
+    <t>66256</t>
+  </si>
+  <si>
+    <t>64100</t>
+  </si>
+  <si>
+    <t>832558</t>
+  </si>
+  <si>
+    <t>552224</t>
+  </si>
+  <si>
+    <t>66209</t>
+  </si>
+  <si>
+    <t>4394609</t>
+  </si>
+  <si>
+    <t>1187406</t>
+  </si>
+  <si>
+    <t>2964564</t>
+  </si>
+  <si>
+    <t>2411305</t>
+  </si>
+  <si>
+    <t>4100394</t>
+  </si>
+  <si>
+    <t>3196229</t>
+  </si>
+  <si>
+    <t>290211</t>
+  </si>
+  <si>
+    <t>3629780</t>
+  </si>
+  <si>
+    <t>617295</t>
+  </si>
+  <si>
+    <t>289162</t>
+  </si>
+  <si>
+    <t>3414509</t>
+  </si>
+  <si>
+    <t>4399947</t>
+  </si>
+  <si>
+    <t>830461</t>
+  </si>
+  <si>
+    <t>4399954</t>
+  </si>
+  <si>
+    <t>1177558</t>
+  </si>
+  <si>
+    <t>4353160</t>
+  </si>
+  <si>
+    <t>3092923</t>
+  </si>
+  <si>
+    <t>2022656</t>
+  </si>
+  <si>
+    <t>1852989</t>
+  </si>
+  <si>
+    <t>3521535</t>
+  </si>
+  <si>
+    <t>1933712</t>
+  </si>
+  <si>
+    <t>2798436</t>
+  </si>
+  <si>
+    <t>66218</t>
+  </si>
+  <si>
+    <t>66155</t>
+  </si>
+  <si>
+    <t>4102153</t>
+  </si>
+  <si>
+    <t>3521517</t>
+  </si>
+  <si>
+    <t>4100086</t>
+  </si>
+  <si>
+    <t>830550</t>
+  </si>
+  <si>
+    <t>3379016</t>
+  </si>
+  <si>
+    <t>1306549</t>
+  </si>
+  <si>
+    <t>3094358</t>
+  </si>
+  <si>
+    <t>832323</t>
+  </si>
+  <si>
+    <t>3521520</t>
+  </si>
+  <si>
+    <t>66257</t>
+  </si>
+  <si>
+    <t>2348387</t>
+  </si>
+  <si>
+    <t>4198895</t>
+  </si>
+  <si>
+    <t>2159311</t>
+  </si>
+  <si>
+    <t>831009</t>
+  </si>
+  <si>
+    <t>4198678</t>
+  </si>
+  <si>
+    <t>3184195</t>
+  </si>
+  <si>
+    <t>1167078</t>
+  </si>
+  <si>
+    <t>2347573</t>
+  </si>
+  <si>
+    <t>698323</t>
+  </si>
+  <si>
+    <t>2631519</t>
+  </si>
+  <si>
+    <t>173986</t>
+  </si>
+  <si>
+    <t>3520481</t>
+  </si>
+  <si>
+    <t>3519557</t>
+  </si>
+  <si>
+    <t>4012462</t>
+  </si>
+  <si>
+    <t>712047</t>
+  </si>
+  <si>
+    <t>2631429</t>
+  </si>
+  <si>
+    <t>3629813</t>
+  </si>
+  <si>
+    <t>2112594</t>
+  </si>
+  <si>
+    <t>3518985</t>
+  </si>
+  <si>
+    <t>832405</t>
+  </si>
+  <si>
+    <t>4581528</t>
+  </si>
+  <si>
+    <t>4353167</t>
+  </si>
+  <si>
+    <t>3557978</t>
+  </si>
+  <si>
+    <t>292593</t>
+  </si>
+  <si>
+    <t>65624</t>
+  </si>
+  <si>
+    <t>831417</t>
+  </si>
+  <si>
+    <t>64125</t>
+  </si>
+  <si>
+    <t>3519509</t>
+  </si>
+  <si>
+    <t>1739984</t>
+  </si>
+  <si>
+    <t>831204</t>
+  </si>
+  <si>
+    <t>2631531</t>
+  </si>
+  <si>
+    <t>190314</t>
+  </si>
+  <si>
+    <t>1177564</t>
+  </si>
+  <si>
+    <t>4394600</t>
+  </si>
+  <si>
+    <t>830398</t>
+  </si>
+  <si>
+    <t>1852971</t>
+  </si>
+  <si>
+    <t>3521349</t>
+  </si>
+  <si>
+    <t>4198108</t>
+  </si>
+  <si>
+    <t>120593</t>
+  </si>
+  <si>
+    <t>1464420</t>
+  </si>
+  <si>
+    <t>291211</t>
+  </si>
+  <si>
+    <t>291445</t>
+  </si>
+  <si>
+    <t>3519003</t>
+  </si>
+  <si>
+    <t>4399642</t>
+  </si>
+  <si>
+    <t>2343553</t>
+  </si>
+  <si>
+    <t>3196228</t>
+  </si>
+  <si>
+    <t>1058472</t>
+  </si>
+  <si>
+    <t>2232195</t>
+  </si>
+  <si>
+    <t>4399960</t>
+  </si>
+  <si>
+    <t>4351216</t>
+  </si>
+  <si>
+    <t>830356</t>
+  </si>
+  <si>
+    <t>831033</t>
+  </si>
+  <si>
+    <t>2162868</t>
+  </si>
+  <si>
+    <t>2796864</t>
+  </si>
+  <si>
+    <t>1091387</t>
+  </si>
+  <si>
+    <t>830767</t>
+  </si>
+  <si>
+    <t>1177652</t>
+  </si>
+  <si>
+    <t>66245</t>
+  </si>
+  <si>
+    <t>3961269</t>
+  </si>
+  <si>
+    <t>3568469</t>
+  </si>
+  <si>
+    <t>3521436</t>
+  </si>
+  <si>
+    <t>2801571</t>
+  </si>
+  <si>
+    <t>2620812</t>
+  </si>
+  <si>
+    <t>63590</t>
+  </si>
+  <si>
+    <t>1224363</t>
+  </si>
+  <si>
+    <t>830557</t>
+  </si>
+  <si>
+    <t>2631529</t>
+  </si>
+  <si>
+    <t>745942</t>
+  </si>
+  <si>
+    <t>2819469</t>
+  </si>
+  <si>
+    <t>4196145</t>
+  </si>
+  <si>
+    <t>4102251</t>
+  </si>
+  <si>
+    <t>4551770</t>
+  </si>
+  <si>
+    <t>3184215</t>
+  </si>
+  <si>
+    <t>4018206</t>
+  </si>
+  <si>
+    <t>1531939</t>
+  </si>
+  <si>
+    <t>63608</t>
+  </si>
+  <si>
+    <t>65213</t>
+  </si>
+  <si>
+    <t>832664</t>
+  </si>
+  <si>
+    <t>2796619</t>
+  </si>
+  <si>
+    <t>1054929</t>
+  </si>
+  <si>
+    <t>832080</t>
+  </si>
+  <si>
+    <t>830778</t>
+  </si>
+  <si>
+    <t>3519639</t>
+  </si>
+  <si>
+    <t>3437886</t>
+  </si>
+  <si>
+    <t>830619</t>
+  </si>
+  <si>
+    <t>832059</t>
+  </si>
+  <si>
+    <t>4356269</t>
+  </si>
+  <si>
+    <t>1177515</t>
   </si>
   <si>
     <t>3521628</t>
   </si>
   <si>
-    <t>3521664</t>
-  </si>
-  <si>
-    <t>3521667</t>
-  </si>
-  <si>
-    <t>3521751</t>
-  </si>
-  <si>
-    <t>3521754</t>
-  </si>
-  <si>
-    <t>4353827</t>
-  </si>
-  <si>
-    <t>4394539</t>
-  </si>
-  <si>
-    <t>809080</t>
-  </si>
-  <si>
-    <t>830350</t>
-  </si>
-  <si>
-    <t>830353</t>
-  </si>
-  <si>
-    <t>830356</t>
-  </si>
-  <si>
-    <t>830359</t>
-  </si>
-  <si>
-    <t>832323</t>
-  </si>
-  <si>
-    <t>960294-1002017</t>
-  </si>
-  <si>
-    <t>1001531-1036138</t>
-  </si>
-  <si>
-    <t>1098179-1144020</t>
-  </si>
-  <si>
-    <t>1957835-1971770</t>
-  </si>
-  <si>
-    <t>2728976-2776890</t>
-  </si>
-  <si>
-    <t>2836642-2885742</t>
-  </si>
-  <si>
-    <t>2899840-2931190</t>
-  </si>
-  <si>
-    <t>4417918-4438335</t>
-  </si>
-  <si>
-    <t>815297-815399</t>
-  </si>
-  <si>
-    <t>819460-819828</t>
-  </si>
-  <si>
-    <t>1039690-1039791</t>
-  </si>
-  <si>
-    <t>1039774-1039869</t>
-  </si>
-  <si>
-    <t>1224175-1224670</t>
-  </si>
-  <si>
-    <t>2630737-2631129</t>
-  </si>
-  <si>
-    <t>2730868-2730950</t>
-  </si>
-  <si>
-    <t>3077943-3078094</t>
-  </si>
-  <si>
-    <t>3184549-3184629</t>
-  </si>
-  <si>
-    <t>3629491-3629571</t>
-  </si>
-  <si>
-    <t>3682922-3683327</t>
-  </si>
-  <si>
-    <t>1025020-1025737</t>
-  </si>
-  <si>
-    <t>1025020-1025738</t>
-  </si>
-  <si>
-    <t>1224130-1224197</t>
-  </si>
-  <si>
-    <t>1224682-1224749</t>
-  </si>
-  <si>
-    <t>2035583-2035659</t>
-  </si>
-  <si>
-    <t>2045623-2046339</t>
-  </si>
-  <si>
-    <t>2528936-2529013</t>
-  </si>
-  <si>
-    <t>2529054-2529131</t>
-  </si>
-  <si>
-    <t>2531836-2531911</t>
-  </si>
-  <si>
-    <t>2531957-2532034</t>
-  </si>
-  <si>
-    <t>2532074-2532149</t>
-  </si>
-  <si>
-    <t>2532154-2532231</t>
-  </si>
-  <si>
-    <t>2579219-2579937</t>
-  </si>
-  <si>
-    <t>2579220-2579937</t>
-  </si>
-  <si>
-    <t>2579220-2579938</t>
-  </si>
-  <si>
-    <t>2796440-2796573</t>
-  </si>
-  <si>
-    <t>294514-294645</t>
-  </si>
-  <si>
-    <t>294514-294646</t>
-  </si>
-  <si>
-    <t>294764-294906</t>
-  </si>
-  <si>
-    <t>294829-294905</t>
-  </si>
-  <si>
-    <t>2969930-2970008</t>
-  </si>
-  <si>
-    <t>2970200-2970278</t>
-  </si>
-  <si>
-    <t>2970478-2970556</t>
-  </si>
-  <si>
-    <t>304268-304344</t>
-  </si>
-  <si>
-    <t>3141065-3141147</t>
-  </si>
-  <si>
-    <t>3141070-3141146</t>
-  </si>
-  <si>
-    <t>3141171-3141253</t>
-  </si>
-  <si>
-    <t>3141176-3141252</t>
-  </si>
-  <si>
-    <t>3194213-3194931</t>
-  </si>
-  <si>
-    <t>3194214-3194931</t>
-  </si>
-  <si>
-    <t>3194214-3194932</t>
-  </si>
-  <si>
-    <t>3316846-3317058</t>
-  </si>
-  <si>
-    <t>3458510-3458586</t>
-  </si>
-  <si>
-    <t>3566871-3567002</t>
-  </si>
-  <si>
-    <t>3566872-3567002</t>
-  </si>
-  <si>
-    <t>3566872-3567005</t>
-  </si>
-  <si>
-    <t>3635059-3635775</t>
-  </si>
-  <si>
-    <t>3682922-3683126</t>
-  </si>
-  <si>
-    <t>3683122-3683326</t>
-  </si>
-  <si>
-    <t>4105115-4105248</t>
-  </si>
-  <si>
-    <t>4105118-4105248</t>
-  </si>
-  <si>
-    <t>4105118-4105250</t>
-  </si>
-  <si>
-    <t>4105231-4105373</t>
-  </si>
-  <si>
-    <t>4105296-4105372</t>
-  </si>
-  <si>
-    <t>4141148-4141234</t>
-  </si>
-  <si>
-    <t>4201309-4201439</t>
-  </si>
-  <si>
-    <t>4356380-4356510</t>
-  </si>
-  <si>
-    <t>4559283-4560000</t>
-  </si>
-  <si>
-    <t>4559283-4560001</t>
-  </si>
-  <si>
-    <t>4596435-4596511</t>
-  </si>
-  <si>
-    <t>4596435-4596512</t>
-  </si>
-  <si>
-    <t>4596667-4596743</t>
-  </si>
-  <si>
-    <t>4596899-4596975</t>
-  </si>
-  <si>
-    <t>4596899-4596976</t>
-  </si>
-  <si>
-    <t>4810646-4810734</t>
-  </si>
-  <si>
-    <t>4810647-4810733</t>
-  </si>
-  <si>
-    <t>4810878-4810966</t>
-  </si>
-  <si>
-    <t>4810879-4810965</t>
-  </si>
-  <si>
-    <t>738249-738327</t>
-  </si>
-  <si>
-    <t>738341-738416</t>
-  </si>
-  <si>
-    <t>738451-738526</t>
-  </si>
-  <si>
-    <t>738642-738720</t>
-  </si>
-  <si>
-    <t>818781-818858</t>
-  </si>
-  <si>
-    <t>818988-819063</t>
-  </si>
-  <si>
-    <t>818988-819065</t>
-  </si>
-  <si>
-    <t>819067-819144</t>
-  </si>
-  <si>
-    <t>819192-819269</t>
-  </si>
-  <si>
-    <t>819402-819479</t>
-  </si>
-  <si>
-    <t>906556-906624</t>
-  </si>
-  <si>
-    <t>906727-906939</t>
-  </si>
-  <si>
-    <t>908736-908804</t>
+    <t>831024</t>
+  </si>
+  <si>
+    <t>2215482</t>
+  </si>
+  <si>
+    <t>1177633</t>
+  </si>
+  <si>
+    <t>4100066</t>
+  </si>
+  <si>
+    <t>830260</t>
+  </si>
+  <si>
+    <t>3572032</t>
+  </si>
+  <si>
+    <t>66329</t>
+  </si>
+  <si>
+    <t>831030</t>
+  </si>
+  <si>
+    <t>830257</t>
+  </si>
+  <si>
+    <t>66415</t>
+  </si>
+  <si>
+    <t>3563947</t>
+  </si>
+  <si>
+    <t>3521406</t>
+  </si>
+  <si>
+    <t>3521400</t>
+  </si>
+  <si>
+    <t>1853190</t>
+  </si>
+  <si>
+    <t>1654951</t>
+  </si>
+  <si>
+    <t>64487</t>
+  </si>
+  <si>
+    <t>1157436</t>
+  </si>
+  <si>
+    <t>916886</t>
+  </si>
+  <si>
+    <t>1177675</t>
+  </si>
+  <si>
+    <t>3572186</t>
+  </si>
+  <si>
+    <t>664905</t>
+  </si>
+  <si>
+    <t>65900</t>
+  </si>
+  <si>
+    <t>2728574</t>
+  </si>
+  <si>
+    <t>830434</t>
+  </si>
+  <si>
+    <t>831043</t>
+  </si>
+  <si>
+    <t>832929</t>
+  </si>
+  <si>
+    <t>4198096</t>
+  </si>
+  <si>
+    <t>2631471</t>
+  </si>
+  <si>
+    <t>830523</t>
+  </si>
+  <si>
+    <t>3629582</t>
+  </si>
+  <si>
+    <t>64126</t>
+  </si>
+  <si>
+    <t>832251</t>
+  </si>
+  <si>
+    <t>4399940</t>
+  </si>
+  <si>
+    <t>830227</t>
+  </si>
+  <si>
+    <t>832095</t>
+  </si>
+  <si>
+    <t>2002077</t>
+  </si>
+  <si>
+    <t>832725</t>
+  </si>
+  <si>
+    <t>1091371</t>
+  </si>
+  <si>
+    <t>611392</t>
+  </si>
+  <si>
+    <t>1039752</t>
+  </si>
+  <si>
+    <t>2798444</t>
+  </si>
+  <si>
+    <t>3521403</t>
+  </si>
+  <si>
+    <t>3629858</t>
+  </si>
+  <si>
+    <t>4350888</t>
+  </si>
+  <si>
+    <t>4353168</t>
+  </si>
+  <si>
+    <t>4575474</t>
+  </si>
+  <si>
+    <t>3196202</t>
+  </si>
+  <si>
+    <t>3629664</t>
+  </si>
+  <si>
+    <t>Cuts made by MKS 11/28/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="35" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -726,14 +3184,8 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -913,6 +3365,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -1938,7 +4396,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1950,165 +4408,166 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="891">
     <cellStyle name="20% - Accent1" xfId="148" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent1 10" xfId="721" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent1 11" xfId="747" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent1 12" xfId="777" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent1 13" xfId="833" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent1 2" xfId="239" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="20% - Accent1 3" xfId="333" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="20% - Accent1 4" xfId="347" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="20% - Accent1 5" xfId="445" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="20% - Accent1 6" xfId="567" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="20% - Accent1 7" xfId="657" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="20% - Accent1 8" xfId="687" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="20% - Accent1 9" xfId="701" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - Accent1 10" xfId="721"/>
+    <cellStyle name="20% - Accent1 11" xfId="747"/>
+    <cellStyle name="20% - Accent1 12" xfId="777"/>
+    <cellStyle name="20% - Accent1 13" xfId="833"/>
+    <cellStyle name="20% - Accent1 2" xfId="239"/>
+    <cellStyle name="20% - Accent1 3" xfId="333"/>
+    <cellStyle name="20% - Accent1 4" xfId="347"/>
+    <cellStyle name="20% - Accent1 5" xfId="445"/>
+    <cellStyle name="20% - Accent1 6" xfId="567"/>
+    <cellStyle name="20% - Accent1 7" xfId="657"/>
+    <cellStyle name="20% - Accent1 8" xfId="687"/>
+    <cellStyle name="20% - Accent1 9" xfId="701"/>
     <cellStyle name="20% - Accent2" xfId="152" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2 10" xfId="723" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="20% - Accent2 11" xfId="749" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="20% - Accent2 12" xfId="779" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="20% - Accent2 13" xfId="835" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="241" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="20% - Accent2 3" xfId="335" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="20% - Accent2 4" xfId="349" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="20% - Accent2 5" xfId="447" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="20% - Accent2 6" xfId="569" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="20% - Accent2 7" xfId="659" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="20% - Accent2 8" xfId="689" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="20% - Accent2 9" xfId="703" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="20% - Accent2 10" xfId="723"/>
+    <cellStyle name="20% - Accent2 11" xfId="749"/>
+    <cellStyle name="20% - Accent2 12" xfId="779"/>
+    <cellStyle name="20% - Accent2 13" xfId="835"/>
+    <cellStyle name="20% - Accent2 2" xfId="241"/>
+    <cellStyle name="20% - Accent2 3" xfId="335"/>
+    <cellStyle name="20% - Accent2 4" xfId="349"/>
+    <cellStyle name="20% - Accent2 5" xfId="447"/>
+    <cellStyle name="20% - Accent2 6" xfId="569"/>
+    <cellStyle name="20% - Accent2 7" xfId="659"/>
+    <cellStyle name="20% - Accent2 8" xfId="689"/>
+    <cellStyle name="20% - Accent2 9" xfId="703"/>
     <cellStyle name="20% - Accent3" xfId="156" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3 10" xfId="725" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="20% - Accent3 11" xfId="751" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="20% - Accent3 12" xfId="781" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="20% - Accent3 13" xfId="837" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="243" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="20% - Accent3 3" xfId="337" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="20% - Accent3 4" xfId="351" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="20% - Accent3 5" xfId="449" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="20% - Accent3 6" xfId="571" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="20% - Accent3 7" xfId="661" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="20% - Accent3 8" xfId="691" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="20% - Accent3 9" xfId="705" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="20% - Accent3 10" xfId="725"/>
+    <cellStyle name="20% - Accent3 11" xfId="751"/>
+    <cellStyle name="20% - Accent3 12" xfId="781"/>
+    <cellStyle name="20% - Accent3 13" xfId="837"/>
+    <cellStyle name="20% - Accent3 2" xfId="243"/>
+    <cellStyle name="20% - Accent3 3" xfId="337"/>
+    <cellStyle name="20% - Accent3 4" xfId="351"/>
+    <cellStyle name="20% - Accent3 5" xfId="449"/>
+    <cellStyle name="20% - Accent3 6" xfId="571"/>
+    <cellStyle name="20% - Accent3 7" xfId="661"/>
+    <cellStyle name="20% - Accent3 8" xfId="691"/>
+    <cellStyle name="20% - Accent3 9" xfId="705"/>
     <cellStyle name="20% - Accent4" xfId="160" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4 10" xfId="727" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="20% - Accent4 11" xfId="753" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="20% - Accent4 12" xfId="783" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="20% - Accent4 13" xfId="839" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="245" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="20% - Accent4 3" xfId="339" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="20% - Accent4 4" xfId="353" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="20% - Accent4 5" xfId="451" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="20% - Accent4 6" xfId="573" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="20% - Accent4 7" xfId="663" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="20% - Accent4 8" xfId="693" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="20% - Accent4 9" xfId="707" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="20% - Accent4 10" xfId="727"/>
+    <cellStyle name="20% - Accent4 11" xfId="753"/>
+    <cellStyle name="20% - Accent4 12" xfId="783"/>
+    <cellStyle name="20% - Accent4 13" xfId="839"/>
+    <cellStyle name="20% - Accent4 2" xfId="245"/>
+    <cellStyle name="20% - Accent4 3" xfId="339"/>
+    <cellStyle name="20% - Accent4 4" xfId="353"/>
+    <cellStyle name="20% - Accent4 5" xfId="451"/>
+    <cellStyle name="20% - Accent4 6" xfId="573"/>
+    <cellStyle name="20% - Accent4 7" xfId="663"/>
+    <cellStyle name="20% - Accent4 8" xfId="693"/>
+    <cellStyle name="20% - Accent4 9" xfId="707"/>
     <cellStyle name="20% - Accent5" xfId="164" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5 10" xfId="729" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="20% - Accent5 11" xfId="755" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="20% - Accent5 12" xfId="785" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="20% - Accent5 13" xfId="841" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="20% - Accent5 3" xfId="341" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="20% - Accent5 4" xfId="355" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="20% - Accent5 5" xfId="453" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="20% - Accent5 6" xfId="575" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="20% - Accent5 7" xfId="665" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="20% - Accent5 8" xfId="695" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="20% - Accent5 9" xfId="709" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="20% - Accent5 10" xfId="729"/>
+    <cellStyle name="20% - Accent5 11" xfId="755"/>
+    <cellStyle name="20% - Accent5 12" xfId="785"/>
+    <cellStyle name="20% - Accent5 13" xfId="841"/>
+    <cellStyle name="20% - Accent5 2" xfId="247"/>
+    <cellStyle name="20% - Accent5 3" xfId="341"/>
+    <cellStyle name="20% - Accent5 4" xfId="355"/>
+    <cellStyle name="20% - Accent5 5" xfId="453"/>
+    <cellStyle name="20% - Accent5 6" xfId="575"/>
+    <cellStyle name="20% - Accent5 7" xfId="665"/>
+    <cellStyle name="20% - Accent5 8" xfId="695"/>
+    <cellStyle name="20% - Accent5 9" xfId="709"/>
     <cellStyle name="20% - Accent6" xfId="168" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6 10" xfId="731" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="20% - Accent6 11" xfId="757" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
-    <cellStyle name="20% - Accent6 12" xfId="787" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
-    <cellStyle name="20% - Accent6 13" xfId="843" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="249" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="20% - Accent6 3" xfId="343" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="20% - Accent6 4" xfId="357" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
-    <cellStyle name="20% - Accent6 5" xfId="455" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
-    <cellStyle name="20% - Accent6 6" xfId="577" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="20% - Accent6 7" xfId="667" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="20% - Accent6 8" xfId="697" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="20% - Accent6 9" xfId="711" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="20% - Accent6 10" xfId="731"/>
+    <cellStyle name="20% - Accent6 11" xfId="757"/>
+    <cellStyle name="20% - Accent6 12" xfId="787"/>
+    <cellStyle name="20% - Accent6 13" xfId="843"/>
+    <cellStyle name="20% - Accent6 2" xfId="249"/>
+    <cellStyle name="20% - Accent6 3" xfId="343"/>
+    <cellStyle name="20% - Accent6 4" xfId="357"/>
+    <cellStyle name="20% - Accent6 5" xfId="455"/>
+    <cellStyle name="20% - Accent6 6" xfId="577"/>
+    <cellStyle name="20% - Accent6 7" xfId="667"/>
+    <cellStyle name="20% - Accent6 8" xfId="697"/>
+    <cellStyle name="20% - Accent6 9" xfId="711"/>
     <cellStyle name="40% - Accent1" xfId="149" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1 10" xfId="722" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="40% - Accent1 11" xfId="748" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="40% - Accent1 12" xfId="778" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="40% - Accent1 13" xfId="834" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="240" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="40% - Accent1 3" xfId="334" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="40% - Accent1 4" xfId="348" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="40% - Accent1 5" xfId="446" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="40% - Accent1 6" xfId="568" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="40% - Accent1 7" xfId="658" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="40% - Accent1 8" xfId="688" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="40% - Accent1 9" xfId="702" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="40% - Accent1 10" xfId="722"/>
+    <cellStyle name="40% - Accent1 11" xfId="748"/>
+    <cellStyle name="40% - Accent1 12" xfId="778"/>
+    <cellStyle name="40% - Accent1 13" xfId="834"/>
+    <cellStyle name="40% - Accent1 2" xfId="240"/>
+    <cellStyle name="40% - Accent1 3" xfId="334"/>
+    <cellStyle name="40% - Accent1 4" xfId="348"/>
+    <cellStyle name="40% - Accent1 5" xfId="446"/>
+    <cellStyle name="40% - Accent1 6" xfId="568"/>
+    <cellStyle name="40% - Accent1 7" xfId="658"/>
+    <cellStyle name="40% - Accent1 8" xfId="688"/>
+    <cellStyle name="40% - Accent1 9" xfId="702"/>
     <cellStyle name="40% - Accent2" xfId="153" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2 10" xfId="724" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="40% - Accent2 11" xfId="750" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="40% - Accent2 12" xfId="780" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="40% - Accent2 13" xfId="836" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="40% - Accent2 3" xfId="336" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="40% - Accent2 4" xfId="350" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="40% - Accent2 5" xfId="448" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="40% - Accent2 6" xfId="570" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="40% - Accent2 7" xfId="660" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="40% - Accent2 8" xfId="690" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="40% - Accent2 9" xfId="704" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="40% - Accent2 10" xfId="724"/>
+    <cellStyle name="40% - Accent2 11" xfId="750"/>
+    <cellStyle name="40% - Accent2 12" xfId="780"/>
+    <cellStyle name="40% - Accent2 13" xfId="836"/>
+    <cellStyle name="40% - Accent2 2" xfId="242"/>
+    <cellStyle name="40% - Accent2 3" xfId="336"/>
+    <cellStyle name="40% - Accent2 4" xfId="350"/>
+    <cellStyle name="40% - Accent2 5" xfId="448"/>
+    <cellStyle name="40% - Accent2 6" xfId="570"/>
+    <cellStyle name="40% - Accent2 7" xfId="660"/>
+    <cellStyle name="40% - Accent2 8" xfId="690"/>
+    <cellStyle name="40% - Accent2 9" xfId="704"/>
     <cellStyle name="40% - Accent3" xfId="157" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3 10" xfId="726" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="40% - Accent3 11" xfId="752" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="40% - Accent3 12" xfId="782" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="40% - Accent3 13" xfId="838" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="244" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="40% - Accent3 3" xfId="338" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="40% - Accent3 4" xfId="352" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="40% - Accent3 5" xfId="450" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="40% - Accent3 6" xfId="572" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="40% - Accent3 7" xfId="662" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="40% - Accent3 8" xfId="692" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="40% - Accent3 9" xfId="706" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="40% - Accent3 10" xfId="726"/>
+    <cellStyle name="40% - Accent3 11" xfId="752"/>
+    <cellStyle name="40% - Accent3 12" xfId="782"/>
+    <cellStyle name="40% - Accent3 13" xfId="838"/>
+    <cellStyle name="40% - Accent3 2" xfId="244"/>
+    <cellStyle name="40% - Accent3 3" xfId="338"/>
+    <cellStyle name="40% - Accent3 4" xfId="352"/>
+    <cellStyle name="40% - Accent3 5" xfId="450"/>
+    <cellStyle name="40% - Accent3 6" xfId="572"/>
+    <cellStyle name="40% - Accent3 7" xfId="662"/>
+    <cellStyle name="40% - Accent3 8" xfId="692"/>
+    <cellStyle name="40% - Accent3 9" xfId="706"/>
     <cellStyle name="40% - Accent4" xfId="161" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4 10" xfId="728" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="40% - Accent4 11" xfId="754" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="40% - Accent4 12" xfId="784" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="40% - Accent4 13" xfId="840" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="246" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="40% - Accent4 3" xfId="340" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="40% - Accent4 4" xfId="354" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="40% - Accent4 5" xfId="452" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="40% - Accent4 6" xfId="574" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="40% - Accent4 7" xfId="664" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="40% - Accent4 8" xfId="694" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="40% - Accent4 9" xfId="708" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="40% - Accent4 10" xfId="728"/>
+    <cellStyle name="40% - Accent4 11" xfId="754"/>
+    <cellStyle name="40% - Accent4 12" xfId="784"/>
+    <cellStyle name="40% - Accent4 13" xfId="840"/>
+    <cellStyle name="40% - Accent4 2" xfId="246"/>
+    <cellStyle name="40% - Accent4 3" xfId="340"/>
+    <cellStyle name="40% - Accent4 4" xfId="354"/>
+    <cellStyle name="40% - Accent4 5" xfId="452"/>
+    <cellStyle name="40% - Accent4 6" xfId="574"/>
+    <cellStyle name="40% - Accent4 7" xfId="664"/>
+    <cellStyle name="40% - Accent4 8" xfId="694"/>
+    <cellStyle name="40% - Accent4 9" xfId="708"/>
     <cellStyle name="40% - Accent5" xfId="165" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5 10" xfId="730" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="40% - Accent5 11" xfId="756" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="40% - Accent5 12" xfId="786" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="40% - Accent5 13" xfId="842" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="248" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="40% - Accent5 3" xfId="342" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="40% - Accent5 4" xfId="356" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="40% - Accent5 5" xfId="454" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="40% - Accent5 6" xfId="576" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="40% - Accent5 7" xfId="666" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="40% - Accent5 8" xfId="696" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="40% - Accent5 9" xfId="710" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="40% - Accent5 10" xfId="730"/>
+    <cellStyle name="40% - Accent5 11" xfId="756"/>
+    <cellStyle name="40% - Accent5 12" xfId="786"/>
+    <cellStyle name="40% - Accent5 13" xfId="842"/>
+    <cellStyle name="40% - Accent5 2" xfId="248"/>
+    <cellStyle name="40% - Accent5 3" xfId="342"/>
+    <cellStyle name="40% - Accent5 4" xfId="356"/>
+    <cellStyle name="40% - Accent5 5" xfId="454"/>
+    <cellStyle name="40% - Accent5 6" xfId="576"/>
+    <cellStyle name="40% - Accent5 7" xfId="666"/>
+    <cellStyle name="40% - Accent5 8" xfId="696"/>
+    <cellStyle name="40% - Accent5 9" xfId="710"/>
     <cellStyle name="40% - Accent6" xfId="169" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6 10" xfId="732" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="40% - Accent6 11" xfId="758" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="40% - Accent6 12" xfId="788" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="40% - Accent6 13" xfId="844" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="250" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="40% - Accent6 3" xfId="344" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="40% - Accent6 4" xfId="358" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="40% - Accent6 5" xfId="456" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="40% - Accent6 6" xfId="578" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="40% - Accent6 7" xfId="668" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="40% - Accent6 8" xfId="698" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
-    <cellStyle name="40% - Accent6 9" xfId="712" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="40% - Accent6 10" xfId="732"/>
+    <cellStyle name="40% - Accent6 11" xfId="758"/>
+    <cellStyle name="40% - Accent6 12" xfId="788"/>
+    <cellStyle name="40% - Accent6 13" xfId="844"/>
+    <cellStyle name="40% - Accent6 2" xfId="250"/>
+    <cellStyle name="40% - Accent6 3" xfId="344"/>
+    <cellStyle name="40% - Accent6 4" xfId="358"/>
+    <cellStyle name="40% - Accent6 5" xfId="456"/>
+    <cellStyle name="40% - Accent6 6" xfId="578"/>
+    <cellStyle name="40% - Accent6 7" xfId="668"/>
+    <cellStyle name="40% - Accent6 8" xfId="698"/>
+    <cellStyle name="40% - Accent6 9" xfId="712"/>
     <cellStyle name="60% - Accent1" xfId="150" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - Accent2" xfId="154" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - Accent3" xfId="158" builtinId="40" customBuiltin="1"/>
@@ -2814,32 +5273,32 @@
     <cellStyle name="Linked Cell" xfId="142" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="138" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="699" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
-    <cellStyle name="Normal 11" xfId="719" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
-    <cellStyle name="Normal 12" xfId="745" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
-    <cellStyle name="Normal 13" xfId="775" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
-    <cellStyle name="Normal 14" xfId="831" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
-    <cellStyle name="Normal 2" xfId="171" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
-    <cellStyle name="Normal 3" xfId="237" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
-    <cellStyle name="Normal 4" xfId="331" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
-    <cellStyle name="Normal 5" xfId="345" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
-    <cellStyle name="Normal 6" xfId="443" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
-    <cellStyle name="Normal 7" xfId="565" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
-    <cellStyle name="Normal 8" xfId="655" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
-    <cellStyle name="Normal 9" xfId="685" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
-    <cellStyle name="Note 10" xfId="700" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
-    <cellStyle name="Note 11" xfId="720" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
-    <cellStyle name="Note 12" xfId="746" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
-    <cellStyle name="Note 13" xfId="776" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
-    <cellStyle name="Note 14" xfId="832" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
-    <cellStyle name="Note 2" xfId="172" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
-    <cellStyle name="Note 3" xfId="238" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
-    <cellStyle name="Note 4" xfId="332" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
-    <cellStyle name="Note 5" xfId="346" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
-    <cellStyle name="Note 6" xfId="444" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
-    <cellStyle name="Note 7" xfId="566" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
-    <cellStyle name="Note 8" xfId="656" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
-    <cellStyle name="Note 9" xfId="686" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
+    <cellStyle name="Normal 10" xfId="699"/>
+    <cellStyle name="Normal 11" xfId="719"/>
+    <cellStyle name="Normal 12" xfId="745"/>
+    <cellStyle name="Normal 13" xfId="775"/>
+    <cellStyle name="Normal 14" xfId="831"/>
+    <cellStyle name="Normal 2" xfId="171"/>
+    <cellStyle name="Normal 3" xfId="237"/>
+    <cellStyle name="Normal 4" xfId="331"/>
+    <cellStyle name="Normal 5" xfId="345"/>
+    <cellStyle name="Normal 6" xfId="443"/>
+    <cellStyle name="Normal 7" xfId="565"/>
+    <cellStyle name="Normal 8" xfId="655"/>
+    <cellStyle name="Normal 9" xfId="685"/>
+    <cellStyle name="Note 10" xfId="700"/>
+    <cellStyle name="Note 11" xfId="720"/>
+    <cellStyle name="Note 12" xfId="746"/>
+    <cellStyle name="Note 13" xfId="776"/>
+    <cellStyle name="Note 14" xfId="832"/>
+    <cellStyle name="Note 2" xfId="172"/>
+    <cellStyle name="Note 3" xfId="238"/>
+    <cellStyle name="Note 4" xfId="332"/>
+    <cellStyle name="Note 5" xfId="346"/>
+    <cellStyle name="Note 6" xfId="444"/>
+    <cellStyle name="Note 7" xfId="566"/>
+    <cellStyle name="Note 8" xfId="656"/>
+    <cellStyle name="Note 9" xfId="686"/>
     <cellStyle name="Output" xfId="140" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Title" xfId="131" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="146" builtinId="25" customBuiltin="1"/>
@@ -3179,774 +5638,5498 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A151"/>
+  <dimension ref="A1:A1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A694" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1039" sqref="J1039"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="10.6640625" style="1"/>
+    <col min="2" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="59" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="60" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="61" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="63" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="64" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="65" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="66" spans="1:1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="5" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98" s="5" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99" s="5" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" s="5" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103" s="5" t="s">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" s="5" t="s">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105" s="5" t="s">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106" s="5" t="s">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107" s="5" t="s">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" s="5" t="s">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109" s="5" t="s">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110" s="5" t="s">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="5" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="5" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="5" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="5" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="5" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="5" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" s="5" t="s">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118" s="5" t="s">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119" s="5" t="s">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120" s="5" t="s">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" s="5" t="s">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122" s="5" t="s">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123" s="5" t="s">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124" s="5" t="s">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125" s="5" t="s">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126" s="5" t="s">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127" s="5" t="s">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="5" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="5" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="5" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131" s="5" t="s">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132" s="5" t="s">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133" s="5" t="s">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" s="5" t="s">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135" s="5" t="s">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136" s="5" t="s">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137" s="5" t="s">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" s="5" t="s">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" s="5" t="s">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" s="5" t="s">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="5" t="s">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="5" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="5" t="s">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="5" t="s">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" s="5" t="s">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" s="5" t="s">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" s="5" t="s">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" s="5" t="s">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" s="5" t="s">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" s="5" t="s">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" s="5" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" s="2" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" s="2" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" s="2" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" s="2" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" s="2" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" s="2" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" s="2" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" s="2" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" s="2" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" s="2" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" s="2" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" s="2" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" s="2" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" s="2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" s="2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" s="2" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" s="2" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" s="2" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="2" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="2" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" s="2" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" s="2" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" s="2" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" s="2" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" s="2" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" s="2" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" s="2" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" s="2" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" s="2" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" s="2" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" s="2" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" s="2" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" s="2" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" s="2" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" s="2" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" s="2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" s="2" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" s="2" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" s="2" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" s="2" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" s="2" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" s="2" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" s="2" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" s="2" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" s="2" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" s="2" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" s="2" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" s="2" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" s="2" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" s="2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" s="2" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" s="2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" s="2" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" s="2" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" s="2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" s="2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" s="2" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" s="2" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" s="2" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" s="2" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" s="2" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" s="2" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" s="2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" s="2" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" s="2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" s="2" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" s="2" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" s="2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" s="2" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" s="2" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" s="2" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" s="2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" s="2" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" s="2" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" s="2" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" s="2" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" s="2" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" s="2" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" s="2" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" s="2" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" s="2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" s="2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" s="2" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" s="2" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" s="2" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" s="2" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" s="2" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" s="2" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" s="2" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" s="2" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" s="2" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" s="2" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" s="2" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" s="2" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" s="2" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" s="2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" s="2" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" s="2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" s="2" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" s="2" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" s="2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" s="2" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" s="2" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" s="2" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" s="2" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" s="2" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" s="2" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" s="2" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" s="2" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" s="2" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" s="2" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" s="2" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" s="2" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" s="2" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" s="2" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" s="2" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" s="2" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" s="2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" s="2" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" s="2" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" s="2" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" s="2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" s="2" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" s="2" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" s="2" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" s="2" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" s="2" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" s="2" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" s="2" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" s="2" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" s="2" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" s="2" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" s="2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" s="2" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" s="2" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" s="2" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" s="2" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" s="2" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" s="2" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" s="2" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903" s="2" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905" s="2" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" s="2" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909" s="2" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" s="2" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913" s="2" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915" s="2" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921" s="2" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923" s="2" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925" s="2" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927" s="2" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929" s="2" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" s="2" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" s="2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" s="2" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" s="2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" s="2" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945" s="2" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" s="2" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947" s="2" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A948" s="2" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A949" s="2" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="950" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A950" s="2" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A951" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A952" s="2" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="953" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A953" s="2" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A954" s="2" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A955" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="956" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A956" s="2" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A957" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="958" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A958" s="2" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A959" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A960" s="2" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A961" s="2" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A962" s="2" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A963" s="2" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A964" s="2" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="965" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A965" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="966" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A966" s="2" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A967" s="2" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A968" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A969" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A970" s="5">
+        <v>2336382</v>
+      </c>
+    </row>
+    <row r="971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A971" s="5">
+        <v>2336388</v>
+      </c>
+    </row>
+    <row r="972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A972" s="5">
+        <v>2336554</v>
+      </c>
+    </row>
+    <row r="973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A973" s="5">
+        <v>2336581</v>
+      </c>
+    </row>
+    <row r="974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A974" s="5">
+        <v>2339742</v>
+      </c>
+    </row>
+    <row r="975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A975" s="5">
+        <v>2339787</v>
+      </c>
+    </row>
+    <row r="976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A976" s="5">
+        <v>2340039</v>
+      </c>
+    </row>
+    <row r="977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A977" s="5">
+        <v>2339933</v>
+      </c>
+    </row>
+    <row r="978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A978" s="5">
+        <v>2340354</v>
+      </c>
+    </row>
+    <row r="979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A979" s="5">
+        <v>4012974</v>
+      </c>
+    </row>
+    <row r="980" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A980" s="5">
+        <v>2340417</v>
+      </c>
+    </row>
+    <row r="981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A981" s="5">
+        <v>2340076</v>
+      </c>
+    </row>
+    <row r="982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A982" s="5">
+        <v>2340159</v>
+      </c>
+    </row>
+    <row r="983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A983" s="5">
+        <v>2339785</v>
+      </c>
+    </row>
+    <row r="984" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A984" s="5">
+        <v>2340073</v>
+      </c>
+    </row>
+    <row r="985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A985" s="5">
+        <v>2339581</v>
+      </c>
+    </row>
+    <row r="986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A986" s="5">
+        <v>2339593</v>
+      </c>
+    </row>
+    <row r="987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A987" s="5">
+        <v>2340313</v>
+      </c>
+    </row>
+    <row r="988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A988" s="5">
+        <v>2340337</v>
+      </c>
+    </row>
+    <row r="989" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A989" s="5">
+        <v>2343581</v>
+      </c>
+    </row>
+    <row r="990" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A990" s="5">
+        <v>2343584</v>
+      </c>
+    </row>
+    <row r="991" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A991" s="5">
+        <v>2343641</v>
+      </c>
+    </row>
+    <row r="992" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A992" s="5">
+        <v>2343653</v>
+      </c>
+    </row>
+    <row r="993" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A993" s="5">
+        <v>2343661</v>
+      </c>
+    </row>
+    <row r="994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A994" s="5">
+        <v>2343665</v>
+      </c>
+    </row>
+    <row r="995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A995" s="5">
+        <v>2343741</v>
+      </c>
+    </row>
+    <row r="996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A996" s="5">
+        <v>2343775</v>
+      </c>
+    </row>
+    <row r="997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A997" s="5">
+        <v>2343783</v>
+      </c>
+    </row>
+    <row r="998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A998" s="5">
+        <v>2343800</v>
+      </c>
+    </row>
+    <row r="999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A999" s="5">
+        <v>2343814</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1000" s="5">
+        <v>2343683</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="5">
+        <v>2343686</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1002" s="5">
+        <v>2343689</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1003" s="5">
+        <v>2343720</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1004" s="5">
+        <v>2343733</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1005" s="5">
+        <v>2343742</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1006" s="5">
+        <v>2343780</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1007" s="5">
+        <v>2343787</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1008" s="5">
+        <v>2343793</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1009" s="5">
+        <v>2343796</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1010" s="5">
+        <v>2343797</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1011" s="5">
+        <v>2343818</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1012" s="5">
+        <v>2343821</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1013" s="5">
+        <v>2343827</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1014" s="5">
+        <v>2343850</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1015" s="5">
+        <v>2343874</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1016" s="5">
+        <v>2343879</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1017" s="5">
+        <v>2343909</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1018" s="5">
+        <v>2343926</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1019" s="5">
+        <v>2336708</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1020" s="5">
+        <v>2343652</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1021" s="5">
+        <v>2343671</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1022" s="5">
+        <v>831039</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1023" s="5">
+        <v>2339922</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1024" s="5">
+        <v>2340010</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1025" s="5">
+        <v>2340022</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1026" s="5">
+        <v>2340025</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1027" s="5">
+        <v>2340028</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1028" s="5">
+        <v>2340139</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1029" s="5">
+        <v>4102016</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1030" s="5">
+        <v>288939</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A62"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.5" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>2336382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2336388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2336554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2336581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>2339742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>2339787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>2340039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>2339933</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>2340354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>4012974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>2340417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2340076</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2340159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2339785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2340073</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2339581</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2339593</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2340313</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2340337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>2343581</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>2343584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>2343641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>2343653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>2343661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>2343665</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>2343741</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>2343775</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>2343783</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>2343800</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>2343814</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>2343683</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>2343686</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2343689</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>2343720</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>2343733</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>2343742</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>2343780</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2343787</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>2343793</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>2343796</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>2343797</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>2343818</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>2343821</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>2343827</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>2343850</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>2343874</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>2343879</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>2343909</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>2343926</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>2336708</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>2343652</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>2343671</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>831039</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>2339922</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>2340010</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>2340022</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>2340025</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>2340028</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>2340139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>4102016</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>288939</v>
       </c>
     </row>
   </sheetData>
